--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/22.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/22.xlsx
@@ -479,13 +479,13 @@
         <v>-0.06382783123214857</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.9177306224943</v>
+        <v>-1.93129647818653</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3944731737714968</v>
+        <v>0.3889558313296338</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1829545888434851</v>
+        <v>-0.1515552624838183</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.05741138645810565</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.978512267535628</v>
+        <v>-2.027770071310478</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3313878583340917</v>
+        <v>0.3283675311428353</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1743601965874282</v>
+        <v>-0.1559503508804648</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.04714929584480833</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.059195624259245</v>
+        <v>-2.152578139393433</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2676243111041427</v>
+        <v>0.2931049672166463</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1913275798938824</v>
+        <v>-0.1773061134561214</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.0340655096762204</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.072690119232295</v>
+        <v>-2.172278577252395</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2460227504957567</v>
+        <v>0.2712289423037237</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2132194627444005</v>
+        <v>-0.2086011433800642</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.015182551600431</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.006086781331407</v>
+        <v>-2.088107084178456</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2537644736457199</v>
+        <v>0.2693156211407651</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2126595555631458</v>
+        <v>-0.2335755653308669</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.0147041935225707</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.856988622296961</v>
+        <v>-1.886302019942149</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3180976867877515</v>
+        <v>0.3613868068199449</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1822281733174782</v>
+        <v>-0.2076826028408816</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.05907870683055734</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.493133123534786</v>
+        <v>-1.524441571713617</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3561170921728417</v>
+        <v>0.3957235111588303</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1573373104993899</v>
+        <v>-0.1814456450892104</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.1194054235259892</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.100874228777131</v>
+        <v>-1.130811575274633</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3145924726584804</v>
+        <v>0.3932832185311613</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1166061977854779</v>
+        <v>-0.1723096432722012</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.195967939788686</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.6366331056703466</v>
+        <v>-0.6649767294395056</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3009070725136075</v>
+        <v>0.3834586162701036</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.0699887406202703</v>
+        <v>-0.1128015126039235</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.287784248929728</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01178210466998833</v>
+        <v>-0.07586593626141458</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2605266641888255</v>
+        <v>0.3830865646572873</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01651203951816952</v>
+        <v>-0.03662485976079803</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.3965394632002287</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7041329509598696</v>
+        <v>0.5864328984437364</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1776549120770367</v>
+        <v>0.3111439811521469</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1115754960374753</v>
+        <v>0.0574883403441343</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.5253460719129724</v>
       </c>
       <c r="E13" t="n">
-        <v>1.412733913840349</v>
+        <v>1.236288131501873</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06107589376476637</v>
+        <v>0.2126027569340236</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2468473632507201</v>
+        <v>0.1942429247225536</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.6742687013173092</v>
       </c>
       <c r="E14" t="n">
-        <v>2.101822904350982</v>
+        <v>1.878781012070985</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1447863628132684</v>
+        <v>0.02533454210733018</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3901341980771111</v>
+        <v>0.3375712341549635</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.8417175712039299</v>
       </c>
       <c r="E15" t="n">
-        <v>2.784203377338063</v>
+        <v>2.555408713234978</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.3918127757857063</v>
+        <v>-0.2213484855240986</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5541894418674502</v>
+        <v>0.4804555213347008</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>1.023427115489605</v>
       </c>
       <c r="E16" t="n">
-        <v>3.418268373995869</v>
+        <v>3.183372063442597</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6608603747921329</v>
+        <v>-0.4260878781362402</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7210228743403768</v>
+        <v>0.6500634829661542</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.208370693312624</v>
       </c>
       <c r="E17" t="n">
-        <v>4.019947802559708</v>
+        <v>3.802285410648628</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.936559158778497</v>
+        <v>-0.714530954663255</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8859185888232747</v>
+        <v>0.8075187751134026</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.386670958636944</v>
       </c>
       <c r="E18" t="n">
-        <v>4.563706723976843</v>
+        <v>4.332118623174252</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.292320400239549</v>
+        <v>-1.06169780386825</v>
       </c>
       <c r="G18" t="n">
-        <v>1.096372938176546</v>
+        <v>0.9857284480490339</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.556270924991457</v>
       </c>
       <c r="E19" t="n">
-        <v>5.005661345555254</v>
+        <v>4.779107530018541</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.647075272583966</v>
+        <v>-1.395985568063032</v>
       </c>
       <c r="G19" t="n">
-        <v>1.305061567170631</v>
+        <v>1.184758373206137</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.717278965649607</v>
       </c>
       <c r="E20" t="n">
-        <v>5.370698870588966</v>
+        <v>5.177644338301963</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.934979179232735</v>
+        <v>-1.66836211412315</v>
       </c>
       <c r="G20" t="n">
-        <v>1.494106480928691</v>
+        <v>1.366861169821451</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.8685805014134</v>
       </c>
       <c r="E21" t="n">
-        <v>5.721815566096581</v>
+        <v>5.551441544095132</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.286213589430963</v>
+        <v>-1.987159722890562</v>
       </c>
       <c r="G21" t="n">
-        <v>1.679657159129662</v>
+        <v>1.545045836009336</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.004766594147686</v>
       </c>
       <c r="E22" t="n">
-        <v>5.968052741713307</v>
+        <v>5.790651213674367</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.629911209826614</v>
+        <v>-2.332265040208148</v>
       </c>
       <c r="G22" t="n">
-        <v>1.92268676190737</v>
+        <v>1.761554867920684</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.11876156143543</v>
       </c>
       <c r="E23" t="n">
-        <v>6.062017121173112</v>
+        <v>5.941443122428143</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.890205227280353</v>
+        <v>-2.620184804794513</v>
       </c>
       <c r="G23" t="n">
-        <v>2.04063139261488</v>
+        <v>1.877162282594895</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.205915231688561</v>
       </c>
       <c r="E24" t="n">
-        <v>6.141544678214292</v>
+        <v>6.022414971631862</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.130975683871386</v>
+        <v>-2.846354980225551</v>
       </c>
       <c r="G24" t="n">
-        <v>2.189094014304155</v>
+        <v>2.01258602005665</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.26531552216943</v>
       </c>
       <c r="E25" t="n">
-        <v>6.189279510059302</v>
+        <v>6.111668323784465</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.305596278584693</v>
+        <v>-3.071135756354957</v>
       </c>
       <c r="G25" t="n">
-        <v>2.259197077048223</v>
+        <v>2.105551959368619</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.295048018799117</v>
       </c>
       <c r="E26" t="n">
-        <v>6.196685166916377</v>
+        <v>6.143828221228037</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.463822815427689</v>
+        <v>-3.228548354054833</v>
       </c>
       <c r="G26" t="n">
-        <v>2.336372779959861</v>
+        <v>2.217907886915086</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.291297276860023</v>
       </c>
       <c r="E27" t="n">
-        <v>6.12102816648984</v>
+        <v>6.116304940769104</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.604317738356266</v>
+        <v>-3.352351882783184</v>
       </c>
       <c r="G27" t="n">
-        <v>2.350144788840833</v>
+        <v>2.193559853499304</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.250625366705652</v>
       </c>
       <c r="E28" t="n">
-        <v>5.965624037578496</v>
+        <v>5.974361761193589</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.653709114759324</v>
+        <v>-3.399979978509763</v>
       </c>
       <c r="G28" t="n">
-        <v>2.347423322781183</v>
+        <v>2.224320592910416</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.173021063115369</v>
       </c>
       <c r="E29" t="n">
-        <v>5.800256244491795</v>
+        <v>5.815418872515752</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.625768953517834</v>
+        <v>-3.409024797185598</v>
       </c>
       <c r="G29" t="n">
-        <v>2.315414685665445</v>
+        <v>2.194899239305443</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.060540292407992</v>
       </c>
       <c r="E30" t="n">
-        <v>5.626084856356913</v>
+        <v>5.673556202469568</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.643988503973652</v>
+        <v>-3.436514836967649</v>
       </c>
       <c r="G30" t="n">
-        <v>2.248423438214145</v>
+        <v>2.173517860061362</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.917081233308805</v>
       </c>
       <c r="E31" t="n">
-        <v>5.434605139257274</v>
+        <v>5.503925063852398</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.535353702476025</v>
+        <v>-3.371670205338164</v>
       </c>
       <c r="G31" t="n">
-        <v>2.121089688608776</v>
+        <v>2.024511799049105</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.749792421372025</v>
       </c>
       <c r="E32" t="n">
-        <v>5.164134595311994</v>
+        <v>5.212380540684119</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.452063544779987</v>
+        <v>-3.276680854181083</v>
       </c>
       <c r="G32" t="n">
-        <v>2.006873502998228</v>
+        <v>1.930784068811878</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.56592636858523</v>
       </c>
       <c r="E33" t="n">
-        <v>4.790219064907537</v>
+        <v>4.884195642780877</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.297772216143369</v>
+        <v>-3.164555781610765</v>
       </c>
       <c r="G33" t="n">
-        <v>1.854032870691255</v>
+        <v>1.790729813572251</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.371710068736555</v>
       </c>
       <c r="E34" t="n">
-        <v>4.431430787127785</v>
+        <v>4.517230768408641</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.148861607717023</v>
+        <v>-2.991722864401007</v>
       </c>
       <c r="G34" t="n">
-        <v>1.682879979985599</v>
+        <v>1.604715595656952</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.174762783195024</v>
       </c>
       <c r="E35" t="n">
-        <v>4.061056456172526</v>
+        <v>4.148875274893419</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.994054286187876</v>
+        <v>-2.874024031726227</v>
       </c>
       <c r="G35" t="n">
-        <v>1.539480919754686</v>
+        <v>1.4782076786479</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.9818345190029321</v>
       </c>
       <c r="E36" t="n">
-        <v>3.687930163123781</v>
+        <v>3.753008699332799</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.840826659211507</v>
+        <v>-2.753107867481601</v>
       </c>
       <c r="G36" t="n">
-        <v>1.45128212045218</v>
+        <v>1.411653744321828</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.7964404112928376</v>
       </c>
       <c r="E37" t="n">
-        <v>3.373139123281927</v>
+        <v>3.413223110157809</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.756703349871031</v>
+        <v>-2.68158551932274</v>
       </c>
       <c r="G37" t="n">
-        <v>1.330043308169555</v>
+        <v>1.298170683364731</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.6221136668308276</v>
       </c>
       <c r="E38" t="n">
-        <v>3.021333217409587</v>
+        <v>3.074632965509246</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.656464716409518</v>
+        <v>-2.603408936580557</v>
       </c>
       <c r="G38" t="n">
-        <v>1.206130603640066</v>
+        <v>1.18193322063144</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.4613864022134809</v>
       </c>
       <c r="E39" t="n">
-        <v>2.670148210786176</v>
+        <v>2.737624955096167</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.534191478659127</v>
+        <v>-2.482367128676522</v>
       </c>
       <c r="G39" t="n">
-        <v>1.072797064337526</v>
+        <v>1.042471198368936</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.313955857069405</v>
       </c>
       <c r="E40" t="n">
-        <v>2.358112792561869</v>
+        <v>2.429910214945944</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.452676800053103</v>
+        <v>-2.409520642728441</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9678272761864785</v>
+        <v>0.9414878517611135</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.1809823571987206</v>
       </c>
       <c r="E41" t="n">
-        <v>2.009906028603019</v>
+        <v>2.069280586643089</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.373174859680347</v>
+        <v>-2.320581399724362</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8225740570982517</v>
+        <v>0.8048900169966184</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.06433578337436767</v>
       </c>
       <c r="E42" t="n">
-        <v>1.687817287863875</v>
+        <v>1.730903914231388</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.281491583551579</v>
+        <v>-2.232821133388438</v>
       </c>
       <c r="G42" t="n">
-        <v>0.724162136063599</v>
+        <v>0.7383061965573865</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-0.03696814881938285</v>
       </c>
       <c r="E43" t="n">
-        <v>1.400416565773422</v>
+        <v>1.468300737095481</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.217840871646829</v>
+        <v>-2.134962410407595</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6149936539738177</v>
+        <v>0.619747375728392</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-0.1235355763848845</v>
       </c>
       <c r="E44" t="n">
-        <v>1.141824836928488</v>
+        <v>1.202172828368647</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.123620935423465</v>
+        <v>-2.061454770445919</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5342114901005676</v>
+        <v>0.5589352346532269</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-0.196192668625081</v>
       </c>
       <c r="E45" t="n">
-        <v>0.8943080477319443</v>
+        <v>0.9706505989991452</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.012093280156023</v>
+        <v>-1.961766285434833</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4354019007846752</v>
+        <v>0.4674215164725948</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-0.2588837846600424</v>
       </c>
       <c r="E46" t="n">
-        <v>0.6966229976670707</v>
+        <v>0.7808804895564312</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.928356660524605</v>
+        <v>-1.860061402666418</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3410654697120531</v>
+        <v>0.3724452786100639</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.3152375095748587</v>
       </c>
       <c r="E47" t="n">
-        <v>0.5013117588761006</v>
+        <v>0.5783904844001364</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.843596593997604</v>
+        <v>-1.768267120974482</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2916344484650067</v>
+        <v>0.319822542461595</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.3675223052021069</v>
       </c>
       <c r="E48" t="n">
-        <v>0.3616380941387651</v>
+        <v>0.4596749139572177</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.739223918189092</v>
+        <v>-1.678583164824094</v>
       </c>
       <c r="G48" t="n">
-        <v>0.20910364201152</v>
+        <v>0.2308790300127792</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.4184397140431237</v>
       </c>
       <c r="E49" t="n">
-        <v>0.2417484263931063</v>
+        <v>0.3296093296406943</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.602735869146412</v>
+        <v>-1.537532299198661</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1440678002498746</v>
+        <v>0.1510648102535283</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.4690091081296899</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1105453400144479</v>
+        <v>0.2223248925213877</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.501753742379943</v>
+        <v>-1.437782212199223</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1071279544626285</v>
+        <v>0.1380186069778874</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.5186410527596995</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.04662938862149642</v>
+        <v>0.03739511356934628</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.3942735207234</v>
+        <v>-1.321804575674226</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05962611231613624</v>
+        <v>0.09179027920444507</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.5674827601332072</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.1143403424713588</v>
+        <v>-0.0197690919381887</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.312836302043323</v>
+        <v>-1.233739958920605</v>
       </c>
       <c r="G52" t="n">
-        <v>0.02400491503201941</v>
+        <v>0.04523930339300305</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.6152524602884333</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.2389507962550476</v>
+        <v>-0.1475255165725439</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.216360269236669</v>
+        <v>-1.145524081839149</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.02028447491004081</v>
+        <v>0.00019117212906824</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.6608767117407431</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.3528632413685753</v>
+        <v>-0.2746805594196255</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.157040604057506</v>
+        <v>-1.062895078156706</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.09622203884788103</v>
+        <v>-0.08326244430833829</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.7043190765336702</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.4253120590354166</v>
+        <v>-0.3371535144975756</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.097404999967788</v>
+        <v>-0.9826978282124573</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.1227810347168752</v>
+        <v>-0.1073463820710888</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.7457136208751777</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.4844084932468895</v>
+        <v>-0.3904233764840743</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.035910357655342</v>
+        <v>-0.9033075033235464</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.1650540269016063</v>
+        <v>-0.1485825091053483</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.7844013230381984</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.5620849410341384</v>
+        <v>-0.4801841826397324</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.027916127345205</v>
+        <v>-0.9007952400560212</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.2101283847546413</v>
+        <v>-0.1975390120658847</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.8201441033972078</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.6287187749688637</v>
+        <v>-0.5558997354512364</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.9638787257313961</v>
+        <v>-0.8179948486634118</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.2484765373844987</v>
+        <v>-0.2423157286286666</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.853190508568352</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.7330213098995492</v>
+        <v>-0.6708618540494475</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.9404522824581799</v>
+        <v>-0.81715681765356</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.2917650474960154</v>
+        <v>-0.2597009075986932</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.8835709608367093</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.8496704690896455</v>
+        <v>-0.8318626150906324</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.9502994517842773</v>
+        <v>-0.815515521112431</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.318497260837206</v>
+        <v>-0.2920267034663403</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.9114409814222028</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.9559271898686316</v>
+        <v>-0.912212345204068</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.9587651507775403</v>
+        <v>-0.8183614109901374</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.3759139735049147</v>
+        <v>-0.3346314924992224</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.9371762166047743</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.049577460179912</v>
+        <v>-1.006746390575957</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.9316639354269172</v>
+        <v>-0.7641034775073069</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.3653031834915287</v>
+        <v>-0.3413491588329255</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.9611169806924895</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.135560417663793</v>
+        <v>-1.114832873385187</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.9519114721329224</v>
+        <v>-0.7902751737465661</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.4180594922682055</v>
+        <v>-0.3875902949405795</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.9834681977619092</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.176096355761146</v>
+        <v>-1.149409276550034</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.9636798915907762</v>
+        <v>-0.8027870865093757</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.440754030729324</v>
+        <v>-0.3946135315333334</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-1.004570609085976</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.236324192827986</v>
+        <v>-1.251351418461705</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.015617686819257</v>
+        <v>-0.8370438912396072</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.4851782131409456</v>
+        <v>-0.4482450764811436</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-1.024888727937277</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.306160110315639</v>
+        <v>-1.287172669727795</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.04376369628915</v>
+        <v>-0.8493575797824737</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.528944291142356</v>
+        <v>-0.5053690272240132</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-1.044168639143823</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.353788815962895</v>
+        <v>-1.328560057089888</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.095538642696939</v>
+        <v>-0.9041168680615911</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.5696400284570166</v>
+        <v>-0.5344579740601584</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-1.062288824584937</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.410488261914747</v>
+        <v>-1.399530427036292</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.157474257658674</v>
+        <v>-0.9683128490513544</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.6081894549102008</v>
+        <v>-0.582636828157841</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-1.078806113886633</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.462812746852287</v>
+        <v>-1.443583777676451</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.227431549360999</v>
+        <v>-1.031828768486544</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.5862060839581706</v>
+        <v>-0.558992033282349</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-1.092047071163676</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.497550778996472</v>
+        <v>-1.493956516448396</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.271226293634217</v>
+        <v>-1.06470227312191</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.6292963698497441</v>
+        <v>-0.5844220659786825</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-1.100800283362127</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.496817654343021</v>
+        <v>-1.492809255655433</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.368737361829313</v>
+        <v>-1.175723084306976</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.6458740138437563</v>
+        <v>-0.6057455027584714</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-1.10480412212913</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.573022363537277</v>
+        <v>-1.574663660078406</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.428917625083367</v>
+        <v>-1.264851402720846</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.6389776407517661</v>
+        <v>-0.6030770997976986</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-1.103108731056934</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.487835352536552</v>
+        <v>-1.500858988747154</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.540151908505294</v>
+        <v>-1.35515686804084</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.6736034474914301</v>
+        <v>-0.6607884041522766</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-1.09492967943871</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.450646659113193</v>
+        <v>-1.437945670940592</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.646053045529736</v>
+        <v>-1.452360536214855</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.6849949359710535</v>
+        <v>-0.6444407002533984</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-1.080438808210139</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.374521239606914</v>
+        <v>-1.387110612295671</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.701173406849488</v>
+        <v>-1.482188706911219</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.6808084404458549</v>
+        <v>-0.6678884907503008</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-1.059397067582166</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.295718878250389</v>
+        <v>-1.276766813061796</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.758762727068717</v>
+        <v>-1.538909500086758</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.6468828226430976</v>
+        <v>-0.6059193301513446</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-1.03133130114651</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.197771716771418</v>
+        <v>-1.193641943869157</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.795586687927381</v>
+        <v>-1.57676727649251</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.6093037799866196</v>
+        <v>-0.5907884180025788</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.9964829161535256</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.070008583009619</v>
+        <v>-1.074529924986352</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.84208948000536</v>
+        <v>-1.634612153475296</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.6035089236368363</v>
+        <v>-0.551141134331248</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.9544534916866387</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.8216830389957073</v>
+        <v>-0.823271882358636</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.886547208054202</v>
+        <v>-1.649085571134527</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.5258086889431942</v>
+        <v>-0.4672178789727455</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.9042365030096445</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.6508961006960998</v>
+        <v>-0.6350399928626806</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.926499452063907</v>
+        <v>-1.712634426286261</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.4915396857994278</v>
+        <v>-0.437304319381637</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.8455412801168821</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.3628775289601017</v>
+        <v>-0.3328608927746228</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.910542097398148</v>
+        <v>-1.68417308782649</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.4614224127022855</v>
+        <v>-0.4052584771046173</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.7777138924090558</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.1004500089790986</v>
+        <v>-0.09759436037056415</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.923679178854624</v>
+        <v>-1.723889292534293</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.3601761902827846</v>
+        <v>-0.2813274749548259</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.6997781048208288</v>
       </c>
       <c r="E83" t="n">
-        <v>0.2007989620769185</v>
+        <v>0.179663380865568</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.898035064000752</v>
+        <v>-1.712155638555014</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3094472578356183</v>
+        <v>-0.2260747608482193</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.6125031307239768</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5437744363913004</v>
+        <v>0.5066180687638088</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.834392281064799</v>
+        <v>-1.698741653111294</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2012479397011896</v>
+        <v>-0.1273359223308297</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.517666450786048</v>
       </c>
       <c r="E85" t="n">
-        <v>0.8326090819927875</v>
+        <v>0.7741140295685882</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.771973608927079</v>
+        <v>-1.668106557359592</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1167928335125628</v>
+        <v>-0.05276458070890514</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.4172512814061325</v>
       </c>
       <c r="E86" t="n">
-        <v>1.115378066464015</v>
+        <v>1.017213163303445</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.628442195909312</v>
+        <v>-1.545187413612526</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.06522769981757495</v>
+        <v>-0.001733737526748631</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.3154073694308868</v>
       </c>
       <c r="E87" t="n">
-        <v>1.373131154378421</v>
+        <v>1.235281762385239</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.468678354000573</v>
+        <v>-1.406111471138404</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01115266653158434</v>
+        <v>0.07942108787999447</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.21700325587468</v>
       </c>
       <c r="E88" t="n">
-        <v>1.635663580715825</v>
+        <v>1.496657779119529</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.348920429121091</v>
+        <v>-1.32650218472654</v>
       </c>
       <c r="G88" t="n">
-        <v>0.04241903018372003</v>
+        <v>0.114752572842656</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.1269775855337503</v>
       </c>
       <c r="E89" t="n">
-        <v>1.841459965860771</v>
+        <v>1.69675140593688</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.159306459371625</v>
+        <v>-1.183638634849812</v>
       </c>
       <c r="G89" t="n">
-        <v>0.09078086048442705</v>
+        <v>0.1427296342850894</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.05109802210379275</v>
       </c>
       <c r="E90" t="n">
-        <v>2.020550974174303</v>
+        <v>1.847994046070773</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.9753769503294505</v>
+        <v>-1.04596733969424</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1374056366977556</v>
+        <v>0.1943545402063985</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.005888865822381422</v>
       </c>
       <c r="E91" t="n">
-        <v>2.134303010149846</v>
+        <v>1.953083378674463</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.7331457337176057</v>
+        <v>-0.8209913889482751</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1282854928183419</v>
+        <v>0.1849538328156807</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.04135809258353865</v>
       </c>
       <c r="E92" t="n">
-        <v>2.262546761404923</v>
+        <v>2.097769371533314</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.5466082038616564</v>
+        <v>-0.6527441603466465</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1300762199252742</v>
+        <v>0.2171625239133921</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.05473216578073958</v>
       </c>
       <c r="E93" t="n">
-        <v>2.259277586577554</v>
+        <v>2.084600574201647</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.326103581596931</v>
+        <v>-0.4296455454437116</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1025407410528063</v>
+        <v>0.1791022538429598</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.0483596120276284</v>
       </c>
       <c r="E94" t="n">
-        <v>2.272595814475024</v>
+        <v>2.111188236342448</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.1933116518553439</v>
+        <v>-0.2729544839044286</v>
       </c>
       <c r="G94" t="n">
-        <v>0.06270926133709767</v>
+        <v>0.1351318524148388</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.0279905666124907</v>
       </c>
       <c r="E95" t="n">
-        <v>2.237530254927425</v>
+        <v>2.06196580796685</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.05952677125201086</v>
+        <v>-0.1365042499437065</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03644973652038679</v>
+        <v>0.1095322617703693</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.001015615756540551</v>
       </c>
       <c r="E96" t="n">
-        <v>2.122765140707803</v>
+        <v>1.973663932069973</v>
       </c>
       <c r="F96" t="n">
-        <v>0.04320826753943202</v>
+        <v>-0.01782954418612988</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.006373404114771108</v>
+        <v>0.05869354360138846</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.02366366397334878</v>
       </c>
       <c r="E97" t="n">
-        <v>1.949067051018077</v>
+        <v>1.814696036644389</v>
       </c>
       <c r="F97" t="n">
-        <v>0.08071899908011433</v>
+        <v>0.04676105548148946</v>
       </c>
       <c r="G97" t="n">
-        <v>0.001517139680318518</v>
+        <v>0.07264913860606077</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.0385790159679972</v>
       </c>
       <c r="E98" t="n">
-        <v>1.747271135591922</v>
+        <v>1.626573322949572</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1126416373804309</v>
+        <v>0.08743605549314069</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.01881029663434076</v>
+        <v>0.04646036458785267</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.04045943002803586</v>
       </c>
       <c r="E99" t="n">
-        <v>1.544848221710069</v>
+        <v>1.440592650671494</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1330038391736648</v>
+        <v>0.09530525206454414</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.02061078247210102</v>
+        <v>0.03392161531526609</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.03275169931958318</v>
       </c>
       <c r="E100" t="n">
-        <v>1.411772678853794</v>
+        <v>1.308982137280767</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1496461347594124</v>
+        <v>0.1232444984250192</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.05523841897379526</v>
+        <v>0.01735921933817258</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.02162578838708499</v>
       </c>
       <c r="E101" t="n">
-        <v>1.252763918742869</v>
+        <v>1.146912185293243</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1838889113140786</v>
+        <v>0.1583899575812725</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.06948067669653916</v>
+        <v>-0.02599638204778638</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.01579730977913445</v>
       </c>
       <c r="E102" t="n">
-        <v>1.082774756688448</v>
+        <v>0.994649147867151</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1743357237541737</v>
+        <v>0.1187103481140741</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.08870415658628446</v>
+        <v>-0.03090075420951751</v>
       </c>
     </row>
   </sheetData>
